--- a/Jogos_do_Dia/2023-11-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>1.91</v>
       </c>
       <c r="J2" t="n">
-        <v>7.5</v>
+        <v>7.96</v>
       </c>
       <c r="K2" t="n">
-        <v>4.33</v>
+        <v>4.29</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.4</v>
@@ -718,10 +718,10 @@
         <v>3.28</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
         <v>2.25</v>
@@ -830,13 +830,13 @@
         <v>9.25</v>
       </c>
       <c r="J3" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.18</v>
@@ -857,10 +857,10 @@
         <v>6.25</v>
       </c>
       <c r="S3" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="T3" t="n">
-        <v>2.64</v>
+        <v>3.27</v>
       </c>
       <c r="U3" t="n">
         <v>2</v>
@@ -960,34 +960,34 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="L4" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Q4" t="n">
         <v>1.53</v>
@@ -999,22 +999,22 @@
         <v>2.55</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z4" t="n">
         <v>1.2</v>
@@ -1032,13 +1032,13 @@
         <v>3.07</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AF4" t="n">
         <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AH4" t="n">
         <v>1.21</v>
@@ -1074,7 +1074,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1086,35 +1086,35 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Resistencia</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>2.09</v>
       </c>
       <c r="K5" t="n">
-        <v>3.35</v>
+        <v>3.47</v>
       </c>
       <c r="L5" t="n">
-        <v>2.25</v>
+        <v>3.38</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1156,64 +1156,64 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.27</v>
+        <v>1.05</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.5</v>
+        <v>0.63</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.66</v>
+        <v>1.17</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.29</v>
+        <v>2.61</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Paraguay Division Profesional</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1225,128 +1225,128 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Resistencia</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.05</v>
+        <v>1.27</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.63</v>
+        <v>1.5</v>
       </c>
       <c r="AB6" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>1.44</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1383,16 +1383,16 @@
         <v>2.1</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>5.2</v>
+        <v>4.55</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1413,16 +1413,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.7</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.75</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>3.46</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
@@ -1525,13 +1525,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.31</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2023-11-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>1.91</v>
       </c>
       <c r="J2" t="n">
-        <v>7.96</v>
+        <v>9.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.29</v>
+        <v>4.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.4</v>
@@ -718,10 +718,10 @@
         <v>3.28</v>
       </c>
       <c r="S2" t="n">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
         <v>2.25</v>
@@ -739,10 +739,10 @@
         <v>1.06</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AB2" t="n">
         <v>1.32</v>
@@ -878,7 +878,7 @@
         <v>5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -963,10 +963,10 @@
         <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>2.13</v>
@@ -990,10 +990,10 @@
         <v>7.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="R4" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="S4" t="n">
         <v>2.55</v>
@@ -1074,7 +1074,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Paraguay Division Profesional</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1086,134 +1086,134 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Resistencia</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.09</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.47</v>
+        <v>3.15</v>
       </c>
       <c r="L5" t="n">
-        <v>3.38</v>
+        <v>2.06</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="S5" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="T5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN5" t="n">
         <v>1.96</v>
       </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AO5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>1.44</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1225,128 +1225,128 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Resistencia</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.34</v>
       </c>
       <c r="K6" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>2.06</v>
+        <v>2.8</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AB6" t="n">
         <v>1.44</v>
       </c>
-      <c r="N6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.63</v>
-      </c>
       <c r="AC6" t="n">
-        <v>1.66</v>
+        <v>1.17</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.29</v>
+        <v>2.61</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>1.64</v>
@@ -1395,22 +1395,22 @@
         <v>4.55</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="S7" t="n">
         <v>2.1</v>
@@ -1419,19 +1419,19 @@
         <v>1.65</v>
       </c>
       <c r="U7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z7" t="n">
         <v>2.13</v>
@@ -1449,19 +1449,19 @@
         <v>3.46</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AJ7" t="n">
         <v>1.3</v>
@@ -1525,13 +1525,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.31</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.78</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="T8" t="n">
-        <v>2.15</v>
+        <v>2.01</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
